--- a/eBay/PTSKU车型图片/eBay_vehicle.xlsx
+++ b/eBay/PTSKU车型图片/eBay_vehicle.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -489,10 +489,123 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>387410192259</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mitsubishi Carisma 1995-2006
+Mitsubishi Colt IV 1992-1996
+Mitsubishi Galant III 1984-1990
+Mitsubishi Galant V 1992-1996
+Mitsubishi Galant V Stufenheck 1992-1996
+Mitsubishi Lancer II 1979-1983
+Mitsubishi Lancer IV Schrägheck 1992-1994
+Mitsubishi Lancer V 1992-1996
+Mitsubishi Lancer V Station Wagon 1992-2003
+Mitsubishi Space Runner 1991-1999
+Mitsubishi Space Wagon 1991-1998
+PROTON Persona 300 1996-2000
+PROTON Persona 400 1994-2000
+PROTON Persona 400 Hatchback 1994-2000</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1.6
+1.6 16V
+1.6 16V 4WD
+1.6 4WD
+1.6 GLX
+1.6 GLXi 16V
+1.8
+1.8 4WD
+1.8 GLSI
+2.0
+2.0 4WD
+2.0 GLSI
+2.0 GLSI 4WD
+316 GLXi
+416 GLXi</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Mitsubishi Carisma 1995/07-2006/06 1.6
+Mitsubishi Carisma 1997/05-2006/06 1.6
+Mitsubishi Carisma 1995/07-1997/07 1.8
+Mitsubishi Colt IV 1994/02-1996/04 1.6
+Mitsubishi Colt IV 1993/08-1995/08 1.6 4WD
+Mitsubishi Colt IV 1992/04-1996/04 1.6 GLXi 16V
+Mitsubishi Galant III 1984/06-1990/04 1.6 GLX
+Mitsubishi Galant V 1994/02-1996/08 1.8
+Mitsubishi Galant V 1992/11-1996/08 1.8 GLSI
+Mitsubishi Galant V 1992/11-1996/08 2.0 GLSI
+Mitsubishi Galant V 1992/11-1996/08 2.0 GLSI 4WD
+Mitsubishi Galant V Stufenheck 1994/02-1996/08 1.8
+Mitsubishi Galant V Stufenheck 1992/11-1996/08 1.8 GLSI
+Mitsubishi Galant V Stufenheck 1992/11-1996/08 2.0
+Mitsubishi Galant V Stufenheck 1992/11-1996/08 2.0 GLSI
+Mitsubishi Galant V Stufenheck 1992/11-1996/08 2.0 GLSI 4WD
+Mitsubishi Lancer II 1979/09-1983/02 1.6
+Mitsubishi Lancer II 1981/01-1983/02 1.6
+Mitsubishi Lancer IV Schrägheck 1992/06-1994/05 1.6 16V
+Mitsubishi Lancer V 1994/02-1996/12 1.6
+Mitsubishi Lancer V 1992/06-1996/12 1.6 16V
+Mitsubishi Lancer V 1992/06-1996/12 1.6 16V 4WD
+Mitsubishi Lancer V Station Wagon 1992/12-2003/10 1.6 16V
+Mitsubishi Lancer V Station Wagon 1992/12-2003/10 1.6 16V 4WD
+Mitsubishi Space Runner 1996/06-1999/08 1.8
+Mitsubishi Space Runner 1991/10-1999/08 1.8
+Mitsubishi Space Runner 1991/10-1999/08 1.8 4WD
+Mitsubishi Space Runner 1996/06-1999/08 1.8 4WD
+Mitsubishi Space Wagon 1991/10-1998/10 1.8
+Mitsubishi Space Wagon 1991/10-1998/10 1.8 4WD
+Mitsubishi Space Wagon 1992/10-1998/10 2.0
+Mitsubishi Space Wagon 1992/10-1998/10 2.0 4WD
+PROTON Persona 300 1996/03-2000/07 316 GLXi
+PROTON Persona 400 1994/01-2000/07 416 GLXi
+PROTON Persona 400 Hatchback 1994/01-2000/07 416 GLXi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>185140862971</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>BMW Z3 1996-1998</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>1.9L</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>1998 BMW Z3 1.9L 1895CC l4 GAS DOHC Naturally Aspirated
+1997 BMW Z3 1.9L 1895CC l4 GAS DOHC Naturally Aspirated
+1996 BMW Z3 1.9L 1895CC l4 GAS DOHC Naturally Aspirated</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
           <t>195869810493</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Audi A3 2003-2010
 Audi A3 Cabriolet 2008-2009
@@ -525,7 +638,7 @@
 VW Touran 2003-2010</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>1.9 TDI
 1.9 TDI 4motion
@@ -540,7 +653,7 @@
 2.0 TDi 4x4</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Audi A3 2003/05-2010/05 1.9 TDI
 Audi A3 2005/06-2008/06 2.0 TDI
